--- a/LED显示屏及相关产品供应商名单.xlsx
+++ b/LED显示屏及相关产品供应商名单.xlsx
@@ -884,7 +884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +987,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,7 +1275,7 @@
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,13 +1294,13 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>182</v>
       </c>
     </row>
